--- a/biology/Botanique/Traunsteinera_sphaerica/Traunsteinera_sphaerica.xlsx
+++ b/biology/Botanique/Traunsteinera_sphaerica/Traunsteinera_sphaerica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Traunsteinera sphaerica est une orchidée terrestre rare appartenant au genre Traunsteinera. Cette espèce endémique du Caucase et de l'Anatolie croît dans les prairies calcaires comme celles autour du lac Arpi en Arménie.
 Elle est parfois considérée comme une sous-espèce de Traunsteinera globosa.
@@ -514,7 +526,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">(fr) Référence CITES : taxon  Traunsteinera sphaerica (sur le site du ministère français de l'Écologie) (consulté le 4 juin 2015)
  Portail de la botanique                     </t>
